--- a/scripts/deduplicate_project/results/excel/toybox_0_7_5_clang.xlsx
+++ b/scripts/deduplicate_project/results/excel/toybox_0_7_5_clang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hothost/Documents/git/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{80D65887-3279-6848-B08F-F550E47B2638}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC15585-8EDF-ED4F-A030-D316613B5EF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,13 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
   <si>
     <t>line</t>
   </si>
@@ -54,127 +55,130 @@
     <t>variability</t>
   </si>
   <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>chvt.c</t>
+  </si>
+  <si>
+    <t>clang</t>
+  </si>
+  <si>
+    <t>toybox_0_7_5</t>
+  </si>
+  <si>
+    <t>Logic error</t>
+  </si>
+  <si>
+    <t>cp.c</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>cpio.c</t>
+  </si>
+  <si>
+    <t>date.c</t>
+  </si>
+  <si>
+    <t>Dead store</t>
+  </si>
+  <si>
+    <t>file.c</t>
+  </si>
+  <si>
+    <t>find.c</t>
+  </si>
+  <si>
+    <t>ftpget.c</t>
+  </si>
+  <si>
+    <t>grep.c</t>
+  </si>
+  <si>
+    <t>hwclock.c</t>
+  </si>
+  <si>
+    <t>id.c</t>
+  </si>
+  <si>
+    <t>Memory error</t>
+  </si>
+  <si>
+    <t>ifconfig.c</t>
+  </si>
+  <si>
     <t>lib_args.c</t>
   </si>
   <si>
-    <t>clang</t>
-  </si>
-  <si>
-    <t>toybox_0_7_5</t>
-  </si>
-  <si>
-    <t>Logic error</t>
-  </si>
-  <si>
-    <t>ftpget.c</t>
+    <t>lib_help.c</t>
+  </si>
+  <si>
+    <t>lib_password.c</t>
+  </si>
+  <si>
+    <t>lib_xwrap.c</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>losetup.c</t>
+  </si>
+  <si>
+    <t>ls.c</t>
+  </si>
+  <si>
+    <t>md5sum.c</t>
+  </si>
+  <si>
+    <t>netcat.c</t>
+  </si>
+  <si>
+    <t>od.c</t>
+  </si>
+  <si>
+    <t>oneit.c</t>
+  </si>
+  <si>
+    <t>patch.c</t>
+  </si>
+  <si>
+    <t>ps.c</t>
+  </si>
+  <si>
+    <t>realpath.c</t>
+  </si>
+  <si>
+    <t>sed.c</t>
+  </si>
+  <si>
+    <t>setsid.c</t>
+  </si>
+  <si>
+    <t>switch_root.c</t>
+  </si>
+  <si>
+    <t>taskset.c</t>
+  </si>
+  <si>
+    <t>time.c</t>
   </si>
   <si>
     <t>timeout.c</t>
   </si>
   <si>
-    <t>oneit.c</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>file.c</t>
+    <t>uudecode.c</t>
+  </si>
+  <si>
+    <t>uuencode.c</t>
+  </si>
+  <si>
+    <t>vmstat.c</t>
   </si>
   <si>
     <t>xargs.c</t>
-  </si>
-  <si>
-    <t>lib_password.c</t>
-  </si>
-  <si>
-    <t>Dead store</t>
-  </si>
-  <si>
-    <t>patch.c</t>
-  </si>
-  <si>
-    <t>sed.c</t>
-  </si>
-  <si>
-    <t>od.c</t>
-  </si>
-  <si>
-    <t>ls.c</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>grep.c</t>
-  </si>
-  <si>
-    <t>uudecode.c</t>
-  </si>
-  <si>
-    <t>lib_xwrap.c</t>
-  </si>
-  <si>
-    <t>uuencode.c</t>
-  </si>
-  <si>
-    <t>md5sum.c</t>
-  </si>
-  <si>
-    <t>time.c</t>
-  </si>
-  <si>
-    <t>setsid.c</t>
-  </si>
-  <si>
-    <t>find.c</t>
-  </si>
-  <si>
-    <t>netcat.c</t>
-  </si>
-  <si>
-    <t>lib_help.c</t>
-  </si>
-  <si>
-    <t>id.c</t>
-  </si>
-  <si>
-    <t>Memory error</t>
-  </si>
-  <si>
-    <t>cp.c</t>
-  </si>
-  <si>
-    <t>date.c</t>
-  </si>
-  <si>
-    <t>vmstat.c</t>
-  </si>
-  <si>
-    <t>hwclock.c</t>
-  </si>
-  <si>
-    <t>switch_root.c</t>
-  </si>
-  <si>
-    <t>losetup.c</t>
-  </si>
-  <si>
-    <t>cpio.c</t>
-  </si>
-  <si>
-    <t>ps.c</t>
-  </si>
-  <si>
-    <t>realpath.c</t>
-  </si>
-  <si>
-    <t>ifconfig.c</t>
-  </si>
-  <si>
-    <t>taskset.c</t>
-  </si>
-  <si>
-    <t>chvt.c</t>
   </si>
   <si>
     <t>Count of variability</t>
@@ -198,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -743,11 +747,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43510.642366203705" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="56">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43512.809525462966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="56" xr:uid="{FEF55174-48B7-B141-8581-FDC175A5F7F7}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="line" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="1506"/>
     </cacheField>
@@ -764,13 +768,16 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="num_configs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="127" maxValue="986"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="129" maxValue="1000"/>
     </cacheField>
     <cacheField name="variability" numFmtId="0">
       <sharedItems count="2">
+        <b v="1"/>
         <b v="0"/>
-        <b v="1"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="classification" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -782,15 +789,226 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="56">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="56">
+  <r>
+    <n v="24"/>
+    <s v="chvt.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="520"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <s v="cp.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="API"/>
+    <n v="910"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="287"/>
+    <s v="cpio.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="517"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <s v="date.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="516"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <s v="date.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="516"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="322"/>
+    <s v="file.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="490"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <s v="find.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="524"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="130"/>
+    <s v="find.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="524"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="150"/>
+    <s v="ftpget.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="748"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <s v="ftpget.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="247"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="203"/>
+    <s v="ftpget.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="239"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <s v="grep.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="515"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="158"/>
+    <s v="grep.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="515"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="hwclock.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="474"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <s v="hwclock.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="474"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <s v="hwclock.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="474"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <s v="id.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Memory error"/>
+    <n v="478"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="ifconfig.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="462"/>
+    <x v="0"/>
+    <m/>
+  </r>
   <r>
     <n v="176"/>
     <s v="lib_args.c"/>
     <s v="clang"/>
     <s v="toybox_0_7_5"/>
     <s v="Logic error"/>
-    <n v="986"/>
-    <x v="0"/>
+    <n v="1000"/>
+    <x v="1"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <s v="lib_args.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="1000"/>
+    <x v="1"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <s v="lib_args.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="1000"/>
+    <x v="1"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <s v="lib_args.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="1000"/>
+    <x v="1"/>
+    <b v="0"/>
   </r>
   <r>
     <n v="214"/>
@@ -798,17 +1016,289 @@
     <s v="clang"/>
     <s v="toybox_0_7_5"/>
     <s v="Logic error"/>
-    <n v="704"/>
+    <n v="715"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="309"/>
+    <s v="lib_args.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="527"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="366"/>
+    <s v="lib_args.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="527"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="490"/>
+    <s v="lib_args.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="1000"/>
     <x v="1"/>
-  </r>
-  <r>
-    <n v="150"/>
-    <s v="ftpget.c"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="lib_help.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="129"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="lib_password.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="1000"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="218"/>
+    <s v="lib_xwrap.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Security"/>
+    <n v="1000"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="losetup.c"/>
     <s v="clang"/>
     <s v="toybox_0_7_5"/>
     <s v="Logic error"/>
-    <n v="738"/>
-    <x v="1"/>
+    <n v="536"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="349"/>
+    <s v="ls.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="API"/>
+    <n v="668"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="353"/>
+    <s v="ls.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="336"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="273"/>
+    <s v="md5sum.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="629"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="netcat.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="350"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="178"/>
+    <s v="netcat.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Security"/>
+    <n v="667"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <s v="netcat.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="298"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <s v="od.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="499"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <s v="od.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="499"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="oneit.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Security"/>
+    <n v="516"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="oneit.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Security"/>
+    <n v="516"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="375"/>
+    <s v="patch.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="API"/>
+    <n v="496"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="382"/>
+    <s v="patch.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="496"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="397"/>
+    <s v="patch.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="API"/>
+    <n v="496"/>
+    <x v="0"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <n v="1506"/>
+    <s v="ps.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="976"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="realpath.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="491"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="779"/>
+    <s v="sed.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="505"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="928"/>
+    <s v="sed.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="505"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="setsid.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="497"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="switch_root.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="493"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="taskset.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="742"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="time.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="355"/>
+    <x v="0"/>
+    <b v="1"/>
   </r>
   <r>
     <n v="66"/>
@@ -816,26 +1306,39 @@
     <s v="clang"/>
     <s v="toybox_0_7_5"/>
     <s v="Logic error"/>
-    <n v="350"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <s v="oneit.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Security"/>
-    <n v="512"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="322"/>
-    <s v="file.c"/>
+    <n v="355"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="uudecode.c"/>
     <s v="clang"/>
     <s v="toybox_0_7_5"/>
     <s v="Logic error"/>
-    <n v="483"/>
-    <x v="1"/>
+    <n v="494"/>
+    <x v="0"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="uuencode.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Dead store"/>
+    <n v="519"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="vmstat.c"/>
+    <s v="clang"/>
+    <s v="toybox_0_7_5"/>
+    <s v="Logic error"/>
+    <n v="517"/>
+    <x v="0"/>
+    <b v="1"/>
   </r>
   <r>
     <n v="184"/>
@@ -843,457 +1346,17 @@
     <s v="clang"/>
     <s v="toybox_0_7_5"/>
     <s v="Logic error"/>
-    <n v="664"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <s v="lib_password.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="986"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="382"/>
-    <s v="patch.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="490"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="928"/>
-    <s v="sed.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="494"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <s v="od.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="491"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="349"/>
-    <s v="ls.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="API"/>
-    <n v="655"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <s v="grep.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="507"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="uudecode.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="485"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="218"/>
-    <s v="lib_xwrap.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Security"/>
-    <n v="986"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <s v="uuencode.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="514"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="273"/>
-    <s v="md5sum.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="622"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="201"/>
-    <s v="lib_args.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="986"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <s v="ftpget.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="243"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <s v="time.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="350"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="490"/>
-    <s v="lib_args.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="986"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <s v="setsid.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="492"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <s v="find.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="515"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="210"/>
-    <s v="lib_args.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="986"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <s v="netcat.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="347"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <s v="od.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="491"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="779"/>
-    <s v="sed.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="494"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="lib_help.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="127"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="178"/>
-    <s v="netcat.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Security"/>
-    <n v="658"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="159"/>
-    <s v="id.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Memory error"/>
-    <n v="472"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <s v="cp.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="API"/>
-    <n v="897"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="193"/>
-    <s v="date.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="511"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="51"/>
-    <s v="vmstat.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="508"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="375"/>
-    <s v="patch.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="API"/>
-    <n v="490"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="397"/>
-    <s v="patch.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="API"/>
-    <n v="490"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <s v="date.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="511"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <s v="hwclock.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="466"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="309"/>
-    <s v="lib_args.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="519"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <s v="switch_root.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="486"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="64"/>
-    <s v="losetup.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="531"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="353"/>
-    <s v="ls.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="329"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <s v="hwclock.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="466"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="287"/>
-    <s v="cpio.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="512"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="366"/>
-    <s v="lib_args.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="519"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="1506"/>
-    <s v="ps.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="962"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="158"/>
-    <s v="grep.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="507"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="89"/>
-    <s v="hwclock.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="466"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <s v="realpath.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="483"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="82"/>
-    <s v="oneit.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Security"/>
-    <n v="512"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="113"/>
-    <s v="find.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="515"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="186"/>
-    <s v="netcat.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="297"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <s v="ifconfig.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="457"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="196"/>
-    <s v="lib_args.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="986"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="203"/>
-    <s v="ftpget.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="235"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <s v="taskset.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Dead store"/>
-    <n v="730"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <s v="chvt.c"/>
-    <s v="clang"/>
-    <s v="toybox_0_7_5"/>
-    <s v="Logic error"/>
-    <n v="512"/>
-    <x v="1"/>
+    <n v="675"/>
+    <x v="0"/>
+    <b v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{783CDFE8-98BE-AE4C-84E4-0E6507740744}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
+  <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1302,11 +1365,12 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="6"/>
@@ -1350,21 +1414,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G58" totalsRowCount="1">
-  <autoFilter ref="A1:G57"/>
-  <sortState ref="A2:G57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82B93E41-86BC-9045-ABD0-9E4C730EA61B}" name="Table1" displayName="Table1" ref="A1:H58" totalsRowCount="1">
+  <autoFilter ref="A1:H57" xr:uid="{C11F6982-672E-7047-A9C4-F2677CBB59A5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H57">
     <sortCondition descending="1" ref="F1:F57"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="line"/>
-    <tableColumn id="2" name="filename"/>
-    <tableColumn id="3" name="tool"/>
-    <tableColumn id="4" name="target"/>
-    <tableColumn id="5" name="type"/>
-    <tableColumn id="6" name="num_configs" totalsRowFunction="custom">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4A73E903-DFD5-D14B-A6EF-C36CCB6DDDF0}" name="line"/>
+    <tableColumn id="2" xr3:uid="{7E1BA30C-A2BB-A140-84EF-5165697F4F72}" name="filename"/>
+    <tableColumn id="3" xr3:uid="{6181A5E8-F0B6-F24F-9014-BCBC9A90DD1B}" name="tool"/>
+    <tableColumn id="4" xr3:uid="{57D0DEE9-A7AB-DA4B-B4A7-108130F55B39}" name="target"/>
+    <tableColumn id="5" xr3:uid="{A8871FDA-9CB2-8944-B95C-0D45FED559E7}" name="type"/>
+    <tableColumn id="6" xr3:uid="{4B479584-D9B5-1B43-9E60-4C52E1F5B5C4}" name="num_configs" totalsRowFunction="custom">
       <totalsRowFormula>MEDIAN(F9:F57)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="variability"/>
+    <tableColumn id="7" xr3:uid="{EE79F058-EFA7-A14B-A708-0E180B7A9875}" name="variability"/>
+    <tableColumn id="8" xr3:uid="{4D56AB85-8279-2D4F-8DDB-4AA2D4530EC0}" name="classification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1666,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D86E99D-FAD1-0741-ABE4-BCD90C84730A}">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1682,18 +1747,18 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -1704,7 +1769,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1">
         <v>49</v>
@@ -1715,7 +1780,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
         <v>56</v>
@@ -1730,10 +1795,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
@@ -1741,9 +1806,10 @@
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1765,1299 +1831,1422 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>490</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1506</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>150</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
       <c r="F11">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>349</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>668</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>178</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>658</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>349</v>
-      </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F16">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>366</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>527</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>524</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>524</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>520</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
         <v>519</v>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>130</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>515</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>515</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>514</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24">
-        <v>512</v>
-      </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>287</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F29">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F30">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>779</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>505</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>928</v>
       </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33">
-        <v>494</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>779</v>
-      </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>375</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>496</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>382</v>
       </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>490</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>375</v>
-      </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>397</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F40">
+        <v>496</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>494</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>493</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>491</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>322</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
         <v>490</v>
       </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>486</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>485</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>322</v>
-      </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>483</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44">
-        <v>483</v>
-      </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F45">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F49">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>355</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>66</v>
       </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>350</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>31</v>
-      </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>353</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>203</v>
       </c>
       <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
         <v>11</v>
       </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
       <c r="F56">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F58">
         <f>MEDIAN(F9:F57)</f>
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
